--- a/datasets/mnist-784-euclidean-true-labels.xlsx
+++ b/datasets/mnist-784-euclidean-true-labels.xlsx
@@ -3877,7 +3877,7 @@
  47876 59886  5820 57131 25164 39675 15945 47654 58399 10470  4674 12214
  37229 55198 26640 50755 18785 57868 50364 46698 28303 16927 55746 16945
  29269 50803 26378 18287 25296 15322 27784 33240 24667 22011 40572 44328
- 59815 54739 18363  5497 23225 48701 30304 55071 30810 42056  9561 55257
+ 59815 54739 18363  5497 23225 48701 30304 55071 42056 30810  9561 55257
   5080  2087  2183 14476]</t>
         </is>
       </c>
@@ -7735,7 +7735,7 @@
  27980 41206 25737 18570 56853 51028 35584 45174  1762 46100 45236  2323
   1256 30506  2742  6714 19484 58712 53052 26137 21774 44559 12306 24018
  15180 21374 50973 16082 55948 16466 11840 30536 24916 51582 35769 46230
-  2800 22902 23592 29820 12496 10558 47744 29577 44581 31161 15420 34346
+  2800 22902 29820 23592 12496 10558 47744 29577 44581 31161 15420 34346
  25378 44922 49730 22242  2289 56893 26858 27876 42018 23484 23278 29660
  49001 21936  2235  3240]</t>
         </is>
@@ -23186,7 +23186,7 @@
  31472 13096 21563  6198 51736 54111 15304 21543 52792 49788  8260 17680
  54366 48561 31435 31455 25723 38888 54151 49100 24854 42447 48408 30308
  23237 42762 13940 54902 48260 18123 52314 21749 21609 45567 33294  7888
- 31230 32699 17366 36242  8728 19162  9414  3870 36528  6018 36812 49470
+ 31230 32699 17366 36242 19162  8728  9414  3870 36528  6018 36812 49470
  51928 46086 57671  3170 13946 29049 21654 24149 31190  6426 39946  6274
  27627 20439 54566 30714 19825 10610 24613  2038 20922 25423 10743 21677
   1482 14435     0 30476]</t>
@@ -28921,7 +28921,7 @@
  10132 32830 21870 33606 56855 12248 54323 37585  1004 12306 53576 30506
  49272 54874 51382 42455 10614  2398 56317 35818 13856  7722 19340 23374
  41948 30814 13194  4118 53446 52414 46651 26334 25154  6608 56280 25502
- 17860 30272 16918 49979]</t>
+ 17860 30272 49979 16918]</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -34951,8 +34951,8 @@
  50533 31723 45890 25240 44457 19994 45948 55248 34478 50613 30393 54562
    404 27602 18080 13560  1966  1340 19234 55966 51392  6584 35132  7666
  34622  9178 50824 19600 12770 45902 57312 41868  4543 57264 49108  8548
- 27648  9366 44148 50592 14552 48358 54020 54566   298 23338 27786 42930
- 50516  7024 37717 21264 23328  6282 59406 50601 25002 28476 49922 22732
+ 27648  9366 44148 50592 14552 48358 54020 54566   298 23338 27786 50516
+ 42930  7024 37717 21264 23328  6282 59406 50601 25002 28476 49922 22732
  13092 15304 41314 11284]</t>
         </is>
       </c>
